--- a/docs/ST3/ST3_24.07.24_output.xlsx
+++ b/docs/ST3/ST3_24.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731675496.348464</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731675498.9343505</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731675496.348464.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731675498.9343505.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>295.86</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>295.81</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.05000000000001137</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731675505.3374383</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731675509.2643704</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731675505.3374383.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731675509.2643704.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>136.11</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>136.6</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.4899999999999807</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -643,101 +671,113 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731675512.0917313</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731675524.265178</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/MXI1731675512.0917313.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/MXI1731675524.265178.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731675513.1287582</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731675515.1594691</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731675513.1287582.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731675515.1594691.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>6961.5</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>6971</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-9.5</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -745,51 +785,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731675522.0178702</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731675522.718809</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731675522.0178702.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731675522.718809.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>6958.5</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>6966.5</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-8</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -797,95 +843,107 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731675529.1593075</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731675529.1593075.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731675529.1593075.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>536.45</v>
       </c>
-      <c r="J8" t="n">
-        <v>536.45</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>537</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.5499999999999545</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731675547.9454038</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731675549.8833687</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731675547.9454038.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731675549.8833687.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>129.32</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>130.68</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>1.360000000000014</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>1.05</v>
       </c>
     </row>
@@ -893,145 +951,163 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731675549.9651167</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731675569.9049873</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/MXI1731675549.9651167.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/MXI1731675569.9049873.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731675551.855483</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731675551.855483.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731675551.855483.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>131</v>
       </c>
-      <c r="J11" t="n">
-        <v>131</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>131.44</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.4399999999999977</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731675556.4598103</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731675560.494869</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731675556.4598103.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731675560.494869.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
         <v>168.28</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>170.26</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-1.97999999999999</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-1.18</v>
       </c>
     </row>
@@ -1039,51 +1115,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731675566.6052787</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731675572.1324244</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731675566.6052787.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731675572.1324244.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="K13" t="n">
         <v>53.485</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>53.675</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-0.1899999999999977</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.36</v>
       </c>
     </row>
@@ -1091,95 +1173,107 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731675574.8184047</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731675574.8184047.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731675574.8184047.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
         <v>53.7</v>
       </c>
-      <c r="J14" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>53.535</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-0.1650000000000063</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731675576.2369025</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731675580.3449812</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731675576.2369025.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731675580.3449812.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I15" t="n">
+      <c r="K15" t="n">
         <v>1461</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>1464.8</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-3.799999999999955</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -1187,51 +1281,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731675591.0041769</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731675594.1564298</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731675591.0041769.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731675594.1564298.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I16" t="n">
+      <c r="K16" t="n">
         <v>63.78</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>64.23</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.4500000000000028</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.7100000000000001</v>
       </c>
     </row>
@@ -1239,189 +1339,213 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731675596.315239</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731675596.315239.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731675596.315239.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I17" t="n">
+      <c r="K17" t="n">
         <v>64.23</v>
       </c>
-      <c r="J17" t="n">
-        <v>64.23</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>63.95</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.2800000000000011</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.44</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731675605.4424012</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731675607.479925</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/MXI1731675605.4424012.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/MXI1731675607.479925.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731675613.2365317</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731675613.2365317.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731675613.2365317.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I19" t="n">
+      <c r="K19" t="n">
         <v>145.84</v>
       </c>
-      <c r="J19" t="n">
-        <v>145.84</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>146.1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.2599999999999909</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731675618.9694834</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731675624.1620083</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731675618.9694834.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731675624.1620083.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I20" t="n">
+      <c r="K20" t="n">
         <v>90.62</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>89.40000000000001</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-1.219999999999999</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-1.35</v>
       </c>
     </row>
@@ -1429,101 +1553,113 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731675624.6973414</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731675626.6728365</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MXI1731675624.6973414.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MXI1731675626.6728365.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731675628.6061742</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731675630.9997175</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731675628.6061742.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731675630.9997175.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I22" t="n">
+      <c r="K22" t="n">
         <v>361.83</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>362</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-0.1700000000000159</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -1531,95 +1667,107 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731675638.5263813</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731675638.5263813.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731675638.5263813.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I23" t="n">
+      <c r="K23" t="n">
         <v>371.52</v>
       </c>
-      <c r="J23" t="n">
-        <v>371.52</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>370.24</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-1.279999999999973</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731675642.6644378</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731675644.8443205</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/FEES1731675642.6644378.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/FEES1731675644.8443205.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I24" t="n">
+      <c r="K24" t="n">
         <v>0.10028</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>0.10082</v>
       </c>
-      <c r="K24" t="n">
-        <v>0.0005399999999999988</v>
-      </c>
-      <c r="L24" t="n">
+      <c r="M24" t="n">
+        <v>0.0005400000000000127</v>
+      </c>
+      <c r="N24" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -1627,51 +1775,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731675650.3107913</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731675653.1099806</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MXI1731675650.3107913.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MXI1731675653.1099806.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I25" t="n">
+      <c r="K25" t="n">
         <v>3115.65</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>3117.25</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-1.599999999999909</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -1679,51 +1833,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731675657.897083</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731675659.9777691</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/MXI1731675657.897083.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/MXI1731675659.9777691.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I26" t="n">
+      <c r="K26" t="n">
         <v>3122.75</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>3127.25</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>4.5</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -1731,139 +1891,157 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731675660.8507586</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731675660.8507586.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731675660.8507586.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I27" t="n">
+      <c r="K27" t="n">
         <v>3133</v>
       </c>
-      <c r="J27" t="n">
-        <v>3133</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>3132.95</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-0.0500000000001819</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731675670.5553987</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1731675670.5553987.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1731675670.5553987.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I28" t="n">
+      <c r="K28" t="n">
         <v>38.03</v>
       </c>
-      <c r="J28" t="n">
-        <v>38.03</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>37.995</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.03500000000000369</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731675671.512247</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731675673.718807</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/TATN1731675671.512247.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/TATN1731675673.718807.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I29" t="n">
+      <c r="K29" t="n">
         <v>662.9</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>663.2</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.3000000000000682</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -1871,44 +2049,50 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731675678.9778562</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>./test_images/TATN1731675678.9778562.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
+          <t>./test_images/TATN1731675678.9778562.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I30" t="n">
+      <c r="K30" t="n">
         <v>665.3</v>
       </c>
-      <c r="J30" t="n">
-        <v>665.3</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>665.2</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-0.09999999999990905</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.02</v>
       </c>
     </row>
   </sheetData>
@@ -1969,13 +2153,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.900000000000091</v>
+        <v>2.849999999999909</v>
       </c>
       <c r="C2" t="n">
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4142857142857273</v>
+        <v>0.4071428571428442</v>
       </c>
       <c r="E2" t="n">
         <v>0.08999999999999998</v>
@@ -1991,19 +2175,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1899999999999977</v>
+        <v>-0.355000000000004</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.09499999999999886</v>
+        <v>-0.177500000000002</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.36</v>
+        <v>-0.6699999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.18</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="4">
@@ -2013,19 +2197,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1700000000000159</v>
+        <v>-1.449999999999989</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.08500000000000796</v>
+        <v>-0.7249999999999943</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.05</v>
+        <v>-0.39</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.02</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="5">
@@ -2035,19 +2219,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3000000000000682</v>
+        <v>-0.3999999999999773</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1500000000000341</v>
+        <v>-0.1999999999999886</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.05</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.02</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="6">
@@ -2057,19 +2241,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.360000000000014</v>
+        <v>1.800000000000011</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6800000000000068</v>
+        <v>0.9000000000000057</v>
       </c>
       <c r="E6" t="n">
-        <v>1.05</v>
+        <v>1.39</v>
       </c>
       <c r="F6" t="n">
-        <v>0.52</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="7">
@@ -2101,19 +2285,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4500000000000028</v>
+        <v>0.1700000000000017</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2250000000000014</v>
+        <v>0.08500000000000085</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7100000000000001</v>
+        <v>0.2700000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>0.36</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="9">
@@ -2123,19 +2307,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.5499999999999545</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.5499999999999545</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="10">
@@ -2145,19 +2329,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>-0.2599999999999909</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>-0.2599999999999909</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>-0.18</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="11">
@@ -2189,19 +2373,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.03500000000000369</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.03500000000000369</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="13">
@@ -2277,13 +2461,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0005399999999999988</v>
+        <v>0.0005400000000000127</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0005399999999999988</v>
+        <v>0.0005400000000000127</v>
       </c>
       <c r="E16" t="n">
         <v>0.54</v>
